--- a/data/tables/paradigms_verbs.xlsx
+++ b/data/tables/paradigms_verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E72CCF-33A4-44FB-9C43-229CDE285551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34EDEAB-7E44-4614-8091-8E8076463D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
